--- a/data/income_statement/2digits/size/96_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/96_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>96-Other personal service activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>96-Other personal service activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,290 +841,330 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>379527.01031</v>
+        <v>384438.8985299999</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>527268.58143</v>
+        <v>516327.08121</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>572442.51401</v>
+        <v>576812.86713</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>607612.5279</v>
+        <v>610627.6260299999</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>612634.49824</v>
+        <v>605899.29903</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>634614.28348</v>
+        <v>633976.26856</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>747513.68325</v>
+        <v>757266.91564</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>811914.84759</v>
+        <v>808024.42337</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>1030302.55351</v>
+        <v>1009137.65447</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1083581.6098</v>
+        <v>1066594.61843</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1324604.562</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1294639.26343</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1338225.613</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>353975.17034</v>
+        <v>356563.7527</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>504409.26894</v>
+        <v>494312.61171</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>546495.5601</v>
+        <v>549422.24818</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>586314.41327</v>
+        <v>591079.69538</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>590854.05878</v>
+        <v>582097.9295399999</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>610248.5175</v>
+        <v>610347.59297</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>720472.7636599999</v>
+        <v>728225.10304</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>781894.51633</v>
+        <v>773859.29449</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>980810.15623</v>
+        <v>954481.6613799999</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1031152.14891</v>
+        <v>1010796.15421</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1226628.62364</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1206711.08336</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1231421.17</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>14358.62996</v>
+        <v>14161.85216</v>
       </c>
       <c r="D7" s="48" t="n">
         <v>11509.5249</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>15102.55743</v>
+        <v>14757.88835</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>6322.03716</v>
+        <v>6007.8008</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>6763.39145</v>
+        <v>7400.57458</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>8566.181119999999</v>
+        <v>8134.812440000001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>6035.25401</v>
+        <v>6025.00001</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>5617.09663</v>
+        <v>7186.86122</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>18651.57565</v>
+        <v>25654.78286</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>15860.81375</v>
+        <v>15840.32569</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>29784.10515</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>21422.04373</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>49844.922</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>11193.21001</v>
+        <v>13713.29367</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>11349.78759</v>
+        <v>10504.9446</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>10844.39648</v>
+        <v>12632.7306</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>14976.07747</v>
+        <v>13540.12985</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>15017.04801</v>
+        <v>16400.79491</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>15799.58486</v>
+        <v>15493.86315</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>21005.66558</v>
+        <v>23016.81259</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>24403.23463</v>
+        <v>26978.26766</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>30840.82163</v>
+        <v>29001.21023</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>36568.64714</v>
+        <v>39958.13853</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>68191.83321</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>66506.13634</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>56959.521</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>2336.67944</v>
+        <v>2253.5581</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>4483.84309</v>
+        <v>4408.837519999999</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>10899.67203</v>
+        <v>10911.05643</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>2770.75999</v>
+        <v>3498.44992</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>2330.74279</v>
+        <v>3274.63838</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>3694.6071</v>
+        <v>3705.60128</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>3291.96475</v>
+        <v>3180.96842</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>3402.85446</v>
+        <v>2998.38806</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>3794.76946</v>
+        <v>3260.82815</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>2672.32306</v>
+        <v>2440.23118</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>12189.49566</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>4257.598730000001</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>10143.588</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>1537.44426</v>
+        <v>1453.42937</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>2112.15458</v>
+        <v>2039.1762</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>9962.045039999999</v>
+        <v>9963.59958</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>1893.14827</v>
+        <v>2299.32566</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>1533.5524</v>
+        <v>2441.76527</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>2647.5367</v>
+        <v>2653.61763</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>1420.59017</v>
+        <v>1577.42695</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>1988.36243</v>
+        <v>1804.27232</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>2107.77067</v>
+        <v>1833.96362</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>1443.50261</v>
+        <v>1211.41073</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>11163.6146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>3237.87863</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>9202.58</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>218.13517</v>
+        <v>216.761</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>1882.74964</v>
+        <v>1880.72245</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>766.2318</v>
+        <v>776.0616600000001</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>444.56579</v>
+        <v>766.0783299999999</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>698.9916899999999</v>
+        <v>730.95754</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>924.76821</v>
+        <v>928.9950200000001</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>1676.62779</v>
+        <v>1408.79468</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>1171.37276</v>
+        <v>948.1597399999999</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>1206.30823</v>
+        <v>954.16671</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>308.9076</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>281.10875</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>272.35041</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>182.297</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>581.10001</v>
+        <v>583.3677299999999</v>
       </c>
       <c r="D12" s="48" t="n">
         <v>488.93887</v>
@@ -1235,343 +1176,388 @@
         <v>433.04593</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>98.1987</v>
+        <v>101.91557</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>122.30219</v>
+        <v>122.98863</v>
       </c>
       <c r="I12" s="48" t="n">
         <v>194.74679</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>243.11927</v>
+        <v>245.956</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>480.69056</v>
+        <v>472.69782</v>
       </c>
       <c r="L12" s="48" t="n">
         <v>919.9128499999999</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>744.7723100000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>747.36969</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>758.711</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>377190.33087</v>
+        <v>382185.34043</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>522784.73834</v>
+        <v>511918.24369</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>561542.84198</v>
+        <v>565901.8107</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>604841.7679099999</v>
+        <v>607129.17611</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>610303.7554500001</v>
+        <v>602624.66065</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>630919.67638</v>
+        <v>630270.6672799999</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>744221.7185</v>
+        <v>754085.94722</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>808511.99313</v>
+        <v>805026.0353099999</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>1026507.78405</v>
+        <v>1005876.82632</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1080909.28674</v>
+        <v>1064154.38725</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1312415.06634</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1290381.6647</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1328082.025</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>282286.59096</v>
+        <v>284337.07865</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>399794.28424</v>
+        <v>389349.0832</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>412079.12538</v>
+        <v>415446.8117200001</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>449873.17245</v>
+        <v>457901.08048</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>448173.41119</v>
+        <v>444269.53074</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>468265.83039</v>
+        <v>472859.37598</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>555706.3955900001</v>
+        <v>564657.37668</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>629154.11717</v>
+        <v>625184.1539299999</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>801012.1534600001</v>
+        <v>784205.6027</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>825208.12824</v>
+        <v>818548.84759</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>988898.8722699999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>976694.0173099999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1035525.663</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>23389.08594</v>
+        <v>23019.34578</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>25720.7447</v>
+        <v>24644.55597</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>33091.9642</v>
+        <v>32282.23874</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>35378.95493</v>
+        <v>33533.13281</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>23224.12201</v>
+        <v>23439.86302</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>15357.47868</v>
+        <v>15422.77031</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>25399.58036</v>
+        <v>27838.00212</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>36192.16529</v>
+        <v>41062.64032999999</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>23238.56921</v>
+        <v>28174.77177</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>33792.83885</v>
+        <v>35531.09215999999</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>39292.61111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>35579.94807</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>59720.379</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>75334.88454000001</v>
+        <v>72325.06147</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>136932.70215</v>
+        <v>131895.4697</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>114217.69251</v>
+        <v>112718.5033</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>138236.97764</v>
+        <v>142693.03966</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>94674.96400000001</v>
+        <v>88553.28051000001</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>73422.82063</v>
+        <v>72626.12177</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>81280.20917</v>
+        <v>80754.23098000001</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>104777.91042</v>
+        <v>100801.4796</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>197068.25602</v>
+        <v>194564.86616</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>181300.67192</v>
+        <v>175532.07731</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>207534.0104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>197191.99482</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>320341.172</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>183506.56601</v>
+        <v>188973.6603</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>236670.96302</v>
+        <v>232340.21816</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>264731.06538</v>
+        <v>270396.76985</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>274415.20203</v>
+        <v>279912.85364</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>329035.02019</v>
+        <v>331151.56681</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>377532.39021</v>
+        <v>382867.96135</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>446221.62775</v>
+        <v>453375.56373</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>484966.14251</v>
+        <v>478404.46211</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>577147.0096100001</v>
+        <v>557991.5283</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>608125.03773</v>
+        <v>605509.5877799999</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>738865.1121799999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>741531.9774600001</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>650411.1899999999</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>56.05447</v>
+        <v>19.0111</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>469.87437</v>
+        <v>468.83937</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>38.40329</v>
+        <v>49.29983</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>1842.03785</v>
+        <v>1762.05437</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>1239.30499</v>
+        <v>1124.8204</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>1953.14087</v>
+        <v>1942.52255</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>2804.97831</v>
+        <v>2689.57985</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>3217.89895</v>
+        <v>4915.571889999999</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>3558.31862</v>
+        <v>3474.43647</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>1989.57974</v>
+        <v>1976.09034</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>3207.13858</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>2390.09696</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>5052.922</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>94903.73990999999</v>
+        <v>97848.26178</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>122990.4541</v>
+        <v>122569.16049</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>149463.7166</v>
+        <v>150454.99898</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>154968.59546</v>
+        <v>149228.09563</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>162130.34426</v>
+        <v>158355.12991</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>162653.84599</v>
+        <v>157411.2913</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>188515.32291</v>
+        <v>189428.57054</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>179357.87596</v>
+        <v>179841.88138</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>225495.63059</v>
+        <v>221671.22362</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>255701.1585</v>
+        <v>245605.53966</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>323516.19407</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>313687.64739</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>292556.362</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>87360.78481</v>
+        <v>87449.6744</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>103994.34154</v>
+        <v>101945.63274</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>125943.34399</v>
+        <v>130082.8706</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>134841.00342</v>
+        <v>136076.00265</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>144388.60029</v>
+        <v>146717.09939</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>156207.69758</v>
+        <v>153618.69843</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>180855.01049</v>
+        <v>179818.90769</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>202607.68077</v>
+        <v>199996.84091</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>226888.15757</v>
+        <v>213576.98245</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>249391.34277</v>
+        <v>242482.27772</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>316216.78922</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>310279.57233</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>294257.436</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>368.23878</v>
@@ -1580,13 +1566,13 @@
         <v>84.87011</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>67.77580999999999</v>
+        <v>67.35047</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>88.89218</v>
+        <v>80.43291000000001</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>83.78228</v>
+        <v>83.37957</v>
       </c>
       <c r="H21" s="48" t="n">
         <v>85.94288</v>
@@ -1606,176 +1592,201 @@
       <c r="M21" s="48" t="n">
         <v>3.47619</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>0.227</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>11732.5583</v>
+        <v>11818.05415</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>11627.70011</v>
+        <v>11815.10925</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>14263.11025</v>
+        <v>14726.50932</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>15246.40748</v>
+        <v>19733.24894</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>16118.11485</v>
+        <v>19486.19572</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>20236.09405</v>
+        <v>20029.89026</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>19638.40575</v>
+        <v>18754.22258</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>24432.67293</v>
+        <v>24162.52801</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>26028.63096</v>
+        <v>24538.42923</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>31311.00629</v>
+        <v>30921.46738</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>54062.08231000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>53748.73487</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>62998.832</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>75259.98773000001</v>
+        <v>75263.38146999999</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>92281.77132</v>
+        <v>90045.65337999999</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>111612.45793</v>
+        <v>115289.01081</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>119505.70376</v>
+        <v>116262.3208</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>128186.70316</v>
+        <v>127147.5241</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>135885.66065</v>
+        <v>133502.86529</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>161105.41589</v>
+        <v>160953.49626</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>178170.89944</v>
+        <v>175830.2045</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>200859.52661</v>
+        <v>189038.55322</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>218062.10756</v>
+        <v>211542.58142</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>262151.23072</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>256527.36127</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>231258.377</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>7542.955099999999</v>
+        <v>10398.58738</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>18996.11256</v>
+        <v>20623.52775</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>23520.37261</v>
+        <v>20372.12838</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>20127.59204</v>
+        <v>13152.09298</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>17741.74397</v>
+        <v>11638.03052</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>6446.14841</v>
+        <v>3792.59287</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>7660.31242</v>
+        <v>9609.662849999999</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-23249.80481</v>
+        <v>-20154.95953</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-1392.52698</v>
+        <v>8094.24117</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>6309.81573</v>
+        <v>3123.26194</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>7299.40485</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>3408.07506</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-1701.074</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>3751.37882</v>
+        <v>16423.14521</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>4137.37115</v>
+        <v>4157.30165</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>5446.64829</v>
+        <v>6356.01988</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>3732.45877</v>
+        <v>3832.87235</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>7149.48707</v>
+        <v>8287.694440000001</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>11736.85517</v>
+        <v>9844.592500000001</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>10674.65805</v>
+        <v>12778.0246</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>9435.78766</v>
+        <v>17484.95503</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>10514.45322</v>
+        <v>15684.13585</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>24038.31156</v>
+        <v>18050.86253</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>18474.19943</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>13905.30572</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>26769.744</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>87.67175</v>
+        <v>6740.567190000001</v>
       </c>
       <c r="D26" s="48" t="n">
         <v>67.2757</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>1021.07942</v>
+        <v>1041.28441</v>
       </c>
       <c r="F26" s="48" t="n">
         <v>64.71758</v>
@@ -1784,10 +1795,10 @@
         <v>32.42857</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>338.18328</v>
+        <v>338.08</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>11.55004</v>
+        <v>119.30343</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>0</v>
@@ -1801,14 +1812,19 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>15.04128</v>
+        <v>579.26252</v>
       </c>
       <c r="D27" s="48" t="n">
         <v>45.35225</v>
@@ -1823,10 +1839,10 @@
         <v>23.79704</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>3183.22072</v>
+        <v>3339.48149</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>0</v>
+        <v>1559.67891</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>0</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>1890.155</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>946.3624100000001</v>
+        <v>891.1309</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>914.10384</v>
+        <v>654.0228499999999</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>785.47675</v>
+        <v>821.8235699999999</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>923.67791</v>
+        <v>1058.67652</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>1452.46493</v>
+        <v>1593.71847</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>1982.28195</v>
+        <v>1387.92504</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>2400.76921</v>
+        <v>2425.63308</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>1499.25089</v>
+        <v>906.89194</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>2625.67422</v>
+        <v>2173.8792</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>3835.29272</v>
+        <v>2921.10921</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>3950.23447</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>3433.06316</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>3592.888</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>29.03059</v>
@@ -1895,7 +1921,7 @@
         <v>50.05752</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>336.11147</v>
+        <v>333.11023</v>
       </c>
       <c r="G29" s="48" t="n">
         <v>66.27972</v>
@@ -1907,7 +1933,7 @@
         <v>118.46727</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>2.30445</v>
+        <v>1.98945</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>9.738190000000001</v>
@@ -1918,20 +1944,25 @@
       <c r="M29" s="48" t="n">
         <v>0.307</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>33.985</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>59.89438</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>34.12998</v>
+        <v>30.68839</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>84.35463</v>
+        <v>246.04091</v>
       </c>
       <c r="F30" s="48" t="n">
         <v>48.89972</v>
@@ -1946,49 +1977,54 @@
         <v>2</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>83.23519999999999</v>
+        <v>231.30477</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>83.11633</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>21.50995</v>
+        <v>19.00995</v>
       </c>
       <c r="M30" s="48" t="n">
         <v>445.68149</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>7.281</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>28.83794</v>
+        <v>3520.19558</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>11.76837</v>
+        <v>6.52979</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>25.394</v>
+        <v>28.74834</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>18.73803</v>
+        <v>19.87176</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>27.6087</v>
+        <v>29.23657</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>177.5436</v>
+        <v>27.07485</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>57.17689</v>
+        <v>47.4168</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>88.62912</v>
+        <v>5449.33176</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>209.77634</v>
+        <v>5003.91238</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>6.04241</v>
@@ -1996,50 +2032,60 @@
       <c r="M31" s="48" t="n">
         <v>23.19967</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>53.438</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>941.6234899999999</v>
+        <v>2471.90877</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>1272.61055</v>
+        <v>1565.18079</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>1243.03632</v>
+        <v>1962.46382</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1031.42772</v>
+        <v>1203.32059</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>2953.30163</v>
+        <v>4279.29207</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>2472.84881</v>
+        <v>1698.96156</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>4593.91867</v>
+        <v>5631.98761</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>1945.28176</v>
+        <v>3471.38777</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>2725.95878</v>
+        <v>3210.93619</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>12650.98511</v>
+        <v>8365.661259999999</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>8626.090550000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>4927.26888</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>11034.986</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>2.58142</v>
@@ -2060,7 +2106,7 @@
         <v>89.62402</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>8.052859999999999</v>
+        <v>7.9235</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>2.52494</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>123.92781</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>99.694</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,134 +2164,154 @@
       <c r="M34" s="48" t="n">
         <v>65.11852</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>1640.33556</v>
+        <v>2128.57386</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>1751.56598</v>
+        <v>1747.6874</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>2228.66245</v>
+        <v>2197.01411</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>1299.66442</v>
+        <v>1095.05403</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>2420.49584</v>
+        <v>2089.83136</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>3488.18063</v>
+        <v>2958.47338</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>3482.72311</v>
+        <v>2865.614</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>5813.47428</v>
+        <v>7420.43738</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>4770.05936</v>
+        <v>5112.423559999999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>7313.59822</v>
+        <v>6528.15655</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>5239.63992</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>4886.73919</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>10057.317</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>1895.32448</v>
+        <v>3017.54226</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>4145.67108</v>
+        <v>4099.83411</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>2475.10072</v>
+        <v>4418.30354</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>2402.08615</v>
+        <v>2368.66241</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>5797.47946</v>
+        <v>6280.21115</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>4581.06625</v>
+        <v>3590.75897</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>5413.523679999999</v>
+        <v>8662.25304</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>6216.679059999999</v>
+        <v>14881.51413</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>5283.268389999999</v>
+        <v>6467.26469</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>21297.70303</v>
+        <v>14332.1037</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>10996.23988</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>7185.01622</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>10486.15</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>166.93901</v>
+        <v>201.15419</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>231.85608</v>
+        <v>266.05704</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>331.75595</v>
+        <v>330.89525</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>385.45822</v>
+        <v>465.1329</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>531.75961</v>
+        <v>580.14158</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>513.7471400000001</v>
+        <v>499.74975</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>577.6545</v>
+        <v>576.9257700000001</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>540.40162</v>
+        <v>526.9704300000001</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>1021.37398</v>
+        <v>1016.19525</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>1084.76819</v>
+        <v>916.6565400000001</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1505.11074</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1503.07477</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>1057.379</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>243.00563</v>
+        <v>255.24642</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>1047.63552</v>
+        <v>1071.00821</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>36.96731</v>
@@ -2258,10 +2329,10 @@
         <v>210.60514</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>1542.00252</v>
+        <v>1690.81577</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>553.89123</v>
+        <v>263.56766</v>
       </c>
       <c r="L38" s="48" t="n">
         <v>1011.5776</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>1147.33465</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>133.904</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2291,13 +2367,13 @@
         <v>0</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>59.53426</v>
+        <v>4.98926</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>0.15573</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>0</v>
+        <v>5416.64993</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>0</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>799.13279</v>
+        <v>2026.44395</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>716.63941</v>
+        <v>691.3651600000001</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>1452.03044</v>
+        <v>3408.71902</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>806.4919200000001</v>
+        <v>872.62838</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>3701.17477</v>
+        <v>4170.56004</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>2322.76845</v>
+        <v>1651.99576</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>3771.30213</v>
+        <v>7025.73842</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1774.86287</v>
+        <v>3840.33558</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>2755.0998</v>
+        <v>3951.79588</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>15904.44004</v>
+        <v>9115.005369999999</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>5972.54676</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>2138.77545</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>5908.716</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2375,10 +2461,10 @@
         <v>0</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>93.42700000000001</v>
+        <v>93.29764</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>132.27579</v>
+        <v>68.23999999999999</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>0</v>
@@ -2386,14 +2472,19 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>0.55088</v>
+        <v>0.49875</v>
       </c>
       <c r="D42" s="48" t="n">
         <v>0</v>
@@ -2425,131 +2516,151 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>685.6961700000001</v>
+        <v>534.19895</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>2149.32857</v>
+        <v>2071.1922</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>646.5793299999999</v>
+        <v>633.9542700000001</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>1026.62283</v>
+        <v>847.3879499999999</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>1347.49412</v>
+        <v>1312.45857</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>1410.90358</v>
+        <v>1159.91138</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>853.80618</v>
+        <v>848.82798</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>2225.29318</v>
+        <v>3272.75291</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>820.6275899999999</v>
+        <v>1167.4659</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>3296.9172</v>
+        <v>3288.86419</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>2371.24773</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>2395.83135</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>3386.151</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>7161.65203</v>
+        <v>7692.350570000001</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>6510.2498</v>
+        <v>6928.08288</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>7859.27875</v>
+        <v>8462.6765</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>10684.21769</v>
+        <v>11140.80524</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>10381.90541</v>
+        <v>11861.24389</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>11761.77383</v>
+        <v>11735.02714</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>14277.71562</v>
+        <v>15797.54887</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>18770.0682</v>
+        <v>25027.5746</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>30118.25471</v>
+        <v>20949.46983</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>31787.50586</v>
+        <v>24047.07582</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>29461.48632</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>21511.17152</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>24685.526</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>7040.18112</v>
+        <v>7317.36091</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>6398.3003</v>
+        <v>6816.13338</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>7668.95725</v>
+        <v>8272.355</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>10626.26071</v>
+        <v>11090.56087</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>10187.11356</v>
+        <v>11666.67745</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>11485.06056</v>
+        <v>11496.13542</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>13536.14425</v>
+        <v>15113.83785</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>18175.15239</v>
+        <v>22198.94877</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>25635.23931</v>
+        <v>20503.41299</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>25651.09627</v>
+        <v>22652.85986</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>28176.58676</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>20903.51901</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>24474.7</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>121.47091</v>
+        <v>374.98966</v>
       </c>
       <c r="D46" s="48" t="n">
         <v>111.9495</v>
@@ -2558,115 +2669,130 @@
         <v>190.3215</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>57.95698</v>
+        <v>50.24437</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>194.79185</v>
+        <v>194.56644</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>276.71327</v>
+        <v>238.89172</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>741.57137</v>
+        <v>683.71102</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>594.9158100000001</v>
+        <v>2828.62583</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>4483.0154</v>
+        <v>446.05684</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>6136.40959</v>
+        <v>1394.21596</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>1284.89956</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>607.65251</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>210.826</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>2237.35741</v>
+        <v>16111.83976</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>12477.56283</v>
+        <v>13752.91241</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>18632.64143</v>
+        <v>13847.16822</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>10773.74697</v>
+        <v>3475.49768</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>8711.846170000001</v>
+        <v>1784.26992</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>1840.1635</v>
+        <v>-1688.60074</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-1356.26883</v>
+        <v>-2072.11446</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-38800.76441</v>
+        <v>-42579.09323</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-26279.59686</v>
+        <v>-3638.3575</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-22737.0816</v>
+        <v>-17205.05505</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-14684.12192</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-11382.80696</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-10103.006</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>2979.86765</v>
+        <v>3509.74701</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>4284.67915</v>
+        <v>2178.42528</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>3892.3265</v>
+        <v>3657.99364</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>5529.70295</v>
+        <v>6283.34696</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>6121.981559999999</v>
+        <v>5848.105</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>6512.545950000001</v>
+        <v>5904.68726</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>5871.23588</v>
+        <v>7913.580849999999</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>12774.14265</v>
+        <v>11429.91043</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>14078.83473</v>
+        <v>11025.83162</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>15621.91906</v>
+        <v>14475.11181</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>15074.78258</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>14173.44858</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>17040.506</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>53.72861</v>
+        <v>53.6321</v>
       </c>
       <c r="D49" s="48" t="n">
         <v>49.3187</v>
@@ -2678,7 +2804,7 @@
         <v>32.69848</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>70.92216000000001</v>
+        <v>66.92216000000001</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>2.79576</v>
@@ -2687,106 +2813,121 @@
         <v>85.60566</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>45.59805</v>
+        <v>39.92406</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>97.34631</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>88.38177</v>
+        <v>64.06820999999999</v>
       </c>
       <c r="M49" s="48" t="n">
         <v>91.12344999999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>385.532</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>2926.13904</v>
+        <v>3456.11491</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>4235.36045</v>
+        <v>2129.10658</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>3881.56314</v>
+        <v>3647.23028</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>5497.00447</v>
+        <v>6250.648480000001</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>6051.0594</v>
+        <v>5781.182839999999</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>6509.750190000001</v>
+        <v>5901.8915</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>5785.63022</v>
+        <v>7827.97519</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>12728.5446</v>
+        <v>11389.98637</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>13981.48842</v>
+        <v>10928.48531</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>15533.53729</v>
+        <v>14411.0436</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>14983.65913</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>14082.32513</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>16654.974</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>4264.26776</v>
+        <v>4328.987230000001</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>5606.8932</v>
+        <v>3792.95854</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>37841.15139</v>
+        <v>31471.62155</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>5075.96161</v>
+        <v>5906.14718</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>6775.76038</v>
+        <v>6393.068230000001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>24658.87913</v>
+        <v>21620.87567</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>7241.36399</v>
+        <v>8729.81697</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>40101.19123</v>
+        <v>31891.38566</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>10484.12489</v>
+        <v>7425.37209</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>27897.03827</v>
+        <v>26463.45272</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>12513.65577</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>13366.01574</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>13802.331</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>200.64619</v>
+        <v>162.89309</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>222.73984</v>
+        <v>11.91981</v>
       </c>
       <c r="E52" s="48" t="n">
         <v>4.476</v>
@@ -2815,203 +2956,231 @@
       <c r="M52" s="48" t="n">
         <v>420.67281</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>133.08727</v>
+        <v>132.92913</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>158.77639</v>
+        <v>98.01989</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>98.00914999999999</v>
+        <v>97.31571000000001</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>145.41212</v>
+        <v>1015.42695</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>397.3173</v>
+        <v>414.05208</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>725.86</v>
+        <v>649.2919000000001</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>724.16313</v>
+        <v>724.01765</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>373.33426</v>
+        <v>374.61469</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>187.56028</v>
+        <v>181.94067</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>889.00877</v>
+        <v>570.9153699999999</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>253.81491</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>253.50117</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>378.332</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>3930.5343</v>
+        <v>4033.16501</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>5225.376969999999</v>
+        <v>3683.01884</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>37738.66624</v>
+        <v>31369.82984</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>4914.28064</v>
+        <v>4874.45138</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>5948.72599</v>
+        <v>5549.299059999999</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>23867.77245</v>
+        <v>20906.33709</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>6507.00086</v>
+        <v>7995.59932</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>39609.636</v>
+        <v>31398.55</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>10284.56461</v>
+        <v>7231.43142</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>26993.4595</v>
+        <v>25877.96735</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>11839.16805</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>12691.84176</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>13423.999</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>952.9573</v>
+        <v>15292.59954</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>11155.34878</v>
+        <v>12138.37915</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-15316.18346</v>
+        <v>-13966.45969</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>11227.48831</v>
+        <v>3852.69746</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>8058.067349999999</v>
+        <v>1239.30669</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-16306.16968</v>
+        <v>-17404.78915</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-2726.39694</v>
+        <v>-2888.35058</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-66127.81299000001</v>
+        <v>-63040.56846</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-22684.88702</v>
+        <v>-37.89797</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-35012.20081</v>
+        <v>-29193.39596</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-12122.99511</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-10575.37412</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-6864.831</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>3188.18832</v>
+        <v>4137.52049</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>6211.49301</v>
+        <v>6177.45683</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>6672.583549999999</v>
+        <v>7108.55204</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>6210.22896</v>
+        <v>6486.37952</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>6430.98456</v>
+        <v>6084.860860000001</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>6702.98514</v>
+        <v>6235.09363</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>8701.020500000001</v>
+        <v>8677.15509</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>6643.78925</v>
+        <v>6788.6421</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>9277.761829999999</v>
+        <v>9170.53212</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>11801.07749</v>
+        <v>11502.10519</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>14870.20971</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>14189.21399</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>13683.588</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-2235.23102</v>
+        <v>11155.07905</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>4943.855769999999</v>
+        <v>5960.922320000001</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-21988.76701</v>
+        <v>-21075.01173</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>5017.259349999999</v>
+        <v>-2633.68206</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>1627.08279</v>
+        <v>-4845.55417</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-23009.15482</v>
+        <v>-23639.88278</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-11427.41744</v>
+        <v>-11565.50567</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-72771.60223999999</v>
+        <v>-69829.21056000001</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-31962.64885</v>
+        <v>-9208.43009</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-46813.2783</v>
+        <v>-40695.50115</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-26993.20482</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-24764.58811</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-20548.419</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>547</v>
+        <v>504</v>
       </c>
       <c r="D59" s="35" t="n">
+        <v>598</v>
+      </c>
+      <c r="E59" s="35" t="n">
+        <v>657</v>
+      </c>
+      <c r="F59" s="35" t="n">
         <v>659</v>
       </c>
-      <c r="E59" s="35" t="n">
-        <v>712</v>
-      </c>
-      <c r="F59" s="35" t="n">
-        <v>735</v>
-      </c>
       <c r="G59" s="35" t="n">
-        <v>685</v>
+        <v>614</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>693</v>
+        <v>614</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>727</v>
+        <v>652</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>774</v>
+        <v>655</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>816</v>
+        <v>674</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>654</v>
+        <v>628</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>671</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>